--- a/medicine/Psychotrope/Marek_Bieńczyk/Marek_Bieńczyk.xlsx
+++ b/medicine/Psychotrope/Marek_Bieńczyk/Marek_Bieńczyk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marek_Bie%C5%84czyk</t>
+          <t>Marek_Bieńczyk</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marek Bieńczyk est un chercheur, écrivain et traducteur polonais né le 6 juillet 1956 à Milanówek, non loin de Varsovie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marek Bieńczyk est un chercheur, écrivain et traducteur polonais né le 6 juillet 1956 à Milanówek, non loin de Varsovie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marek_Bie%C5%84czyk</t>
+          <t>Marek_Bieńczyk</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marek Bieńczyk est un romancier, auteur d'essais, chroniqueur œnologique, traducteur en polonais d'œuvres en français de Kundera, de Barthes et de Cioran. 
 Il a fait des études de philologie romane (langue et littérature française) à l'Université de Varsovie. 
